--- a/medicine/Enfance/Robert_W._Chambers/Robert_W._Chambers.xlsx
+++ b/medicine/Enfance/Robert_W._Chambers/Robert_W._Chambers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Williams Chambers, né le 26 mai 1865 à Brooklyn, et mort le 16 décembre 1933 à New York, est un écrivain américain, célèbre à son époque comme auteur de romans-feuilletons et de best-sellers, et reconnu aujourd'hui comme un des grands noms de la nouvelle fantastique, notamment pour son recueil Le Roi en jaune.
 </t>
@@ -511,44 +523,83 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert William Chambers naît à Brooklyn le 26 mai 1865, dans une riche famille de l'État de New York (père médecin, frère avocat). Après des études artistiques à l'Arts Students League de New York puis, de 1886 à 1892, à l'Académie Julian à Paris, il travaille comme illustrateur pour quelques grands hebdomadaires (Life et Vogue, entre autres) et commence à écrire. En 1894 il publie un premier roman sur la « vie de bohème », In the Quarter. L'année suivante, son recueil de nouvelles fantastiques Le Roi en jaune rencontre un succès non négligeable. L'ouvrage, où transparaît l'influence de Poe, de Maeterlinck et des décadents parisiens, est jugé morbide, malsain et extravagant par les critiques conservateurs, cependant que d'autres revues littéraires soulignent le talent de l'auteur et lui prédisent une belle carrière.
 Devenu écrivain professionnel, Chambers commence à publier nouvelles et romans (sous forme de feuilletons) dans les grands magazines de l'époque, du Harper's au Cosmopolitan en passant par le Saturday Evening Post, avec la collaboration d'illustrateurs parfois aussi célèbres que son ami Charles Dana Gibson. Ses textes sont ensuite rassemblés en volume avant de faire l'objet de réimpressions populaires à bon marché, l'équivalent de nos livres de poche. Ce succès commercial (certains romans comme The Fighting Chance figurent dans la liste des best-sellers de leur décennie) se double d'une ascension sociale impressionnante, symbolisée par une entrée dans le Who's Who et au National Institute of Arts and Letters. Plusieurs de ses romans sont adaptés au cinéma.
 En 1933, alors qu'il a publié plus de 90 livres, il décède quelques jours après une opération chirurgicale. Le New York Times et le New York Herald Tribune lui accordent une notice nécrologique. Il est enterré à Broadalbin, petite ville de l'État de New York où se trouve son manoir familial, que l'on peut encore visiter aujourd'hui.
-Influence
-Aux États-Unis, Chambers a attiré l'attention de critiques importants et d'écrivains parmi lesquels on peut notamment citer James Blish, Marion Zimmer Bradley et surtout H. P. Lovecraft, qui encense Le Roi en jaune dans son étude Épouvante et surnaturel en littérature (1927). À la suite de son maître, le courant lovecraftien a adopté certaines des composantes de l'univers mythique de Chambers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Influence</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, Chambers a attiré l'attention de critiques importants et d'écrivains parmi lesquels on peut notamment citer James Blish, Marion Zimmer Bradley et surtout H. P. Lovecraft, qui encense Le Roi en jaune dans son étude Épouvante et surnaturel en littérature (1927). À la suite de son maître, le courant lovecraftien a adopté certaines des composantes de l'univers mythique de Chambers.
 Le succès mondial du jeu de rôles L'Appel de Cthulhu à partir des années 1980, a également contribué à entraîner un renouveau d'intérêt pour un certain nombre d'auteurs parmi lesquels Chambers figure en bonne place aux côtés d'Arthur Machen, Algernon Blackwood ou lord Dunsany. 
 En France, Chambers demeure peu connu, à la différence d'autres écrivains pourtant proches de lui sur plus d'un point, comme Ambrose Bierce ou Arthur Machen. Cependant, la fin des années 1990 a vu les premiers signes d'un nouvel intérêt : parution chez Chaosium de l'intégrale des récits fantastiques (The Yellow Sign (Chaosium), édité par l'érudit lovecraftien S. T. Joshi); présence de nouvelles de Chambers dans plusieurs publications françaises (revues, anthologies) ; sites Web consacrés à l'auteur ; sortie d'un recueil d'études,  En compagnie du Roi en jaune...
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Robert_W._Chambers</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Robert_W._Chambers</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>L'œuvre fantastique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les nouvelles fantastiques de R. W. Chambers se mêlent fantastique, horreur et poésie ; la sensibilité décadente y est particulièrement visible. 
 D'autres histoires adoptent un ton nettement plus léger, un humour fantaisiste qui vient pimenter des intrigues à base scientifique.
@@ -556,40 +607,87 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Robert_W._Chambers</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Robert_W._Chambers</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Romans
-Série Cardigan
-Cardigan (1901) Roman historique se déroulant dans l'Amérique pré-révolutionnaire, aux environs de Broadalbin (demeure de la famille Chambers).
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Cardigan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cardigan (1901) Roman historique se déroulant dans l'Amérique pré-révolutionnaire, aux environs de Broadalbin (demeure de la famille Chambers).
 The Maid-at-Arms (1902)
 The Reckoning (1905)
 The Hidden Children (1914)
-The Little Red Foot (1921)
-Autres romans
+The Little Red Foot (1921)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 In the Quarter (1894)
 The Red Republic: a Romance of the Commune (1895)
 With the Band (1896)
@@ -654,8 +752,43 @@
 The Fifth Horseman (1937), publication posthume
 Marie Halkett (1937), publication posthume
 Smoke of Battle (1938), publication posthume
-Recueils de nouvelles
-The King in Yellow (1895) Paru en français sous le titre Le Roi de jaune vêtu, Verviers, Marabout. Fantastique no 589, 1976 Paru en français dans une nouvelle traduction intégrale sous le titre Le Roi en jaune, Noisy-le-Sec, Malpertuis, coll. Absinthe, éthers, opiums, 2007 Ouvrage de Chambers le plus connu aux États-Unis, ce recueil est un chef-d'œuvre du fantastique décadent. En France il a fait l'objet que d'une édition tronquée (Le Roi de jaune vêtu, Marabout, 1976), handicapée par une introduction partiale où Chambers est présenté comme un précurseur de H. P. Lovecraft sans plus. Les nouvelles "The King in Yellow" et "The Repairer of Reputations" ont été retraduites pour l'ouvrage Le Cycle de Hastur, paru chez Nocturnes. L'édition parue chez Malpertuis en 2007 propose la première traduction intégrale du recueil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The King in Yellow (1895) Paru en français sous le titre Le Roi de jaune vêtu, Verviers, Marabout. Fantastique no 589, 1976 Paru en français dans une nouvelle traduction intégrale sous le titre Le Roi en jaune, Noisy-le-Sec, Malpertuis, coll. Absinthe, éthers, opiums, 2007 Ouvrage de Chambers le plus connu aux États-Unis, ce recueil est un chef-d'œuvre du fantastique décadent. En France il a fait l'objet que d'une édition tronquée (Le Roi de jaune vêtu, Marabout, 1976), handicapée par une introduction partiale où Chambers est présenté comme un précurseur de H. P. Lovecraft sans plus. Les nouvelles "The King in Yellow" et "The Repairer of Reputations" ont été retraduites pour l'ouvrage Le Cycle de Hastur, paru chez Nocturnes. L'édition parue chez Malpertuis en 2007 propose la première traduction intégrale du recueil.
 The Maker of Moons (1896) Paru en français sous le titre Yue Laou, le faiseur de lunes, Cadillon, Le Visage vert, 2009 Cet épais recueil contient un certain nombre de nouvelles non-fantastiques mineures et trois nouvelles fantastiques qui mélangent horreur et poésie, parmi lesquelles la nouvelle-titre restée célèbre.
 The Mystery of Choice (1897) Recueil de nouvelles fantastiques qui se place juste derrière Le Roi en jaune par sa qualité et son intérêt.
 The Haunts of Men (1898)
@@ -670,16 +803,84 @@
 Athalie (1915)
 Police!!! (1915) Recueil de nouvelles de la même veine que In Search of the Unknown : un narrateur-personnage principal sert de fil rouge à des nouvelles où l'humour est également présent.
 Who Goes There! (1915)
-The Better Man (1916)
-Littérature d'enfance et de jeunesse
-Outdoorland (1902)
+The Better Man (1916)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Outdoorland (1902)
 Orchard-Land (1903)
 River-Land (1904)
 Forest-Land (1905)
 Mountain-Land (1906)
-Garden-Land (1907)
-Autres publications
-D. Osborne, Writer of Romance (1897)
+Garden-Land (1907)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D. Osborne, Writer of Romance (1897)
 Curiosities of Angling (1904)
 Fished Out (1904)
 Fly-Fishing (1904)
@@ -688,9 +889,43 @@
 Semi-Tropical Shooting (1904)
 Stag and Roebuck (1904)
 Trout and Grayling in Bavaria (1904)
-My Woman Types (1918)
-Au cinéma
-Son roman Between Friends a été adapté au cinéma en 1924 par James Stuart Blackton sous le titre Between Friends (Échéance tragique en France).
+My Woman Types (1918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_W._Chambers</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Son roman Between Friends a été adapté au cinéma en 1924 par James Stuart Blackton sous le titre Between Friends (Échéance tragique en France).
 Son roman The Common Law a été adapté au cinéma en 1916 par Albert Capellani sous le titre La Loi commune, et en 1931 (The Common Law).
 Son roman The Turning Point a été adapté au cinéma en 1920 par J.A. Barry sous le titre L'Eau qui dort (The Turning Point)
 Adaptation de son récit Pickets par Denis Sanders sous le titre A Time Out of War, Oscar du meilleur court métrage de fiction en 1955.</t>
